--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -43,66 +43,60 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -124,42 +115,48 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -169,46 +166,46 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -581,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8253424657534246</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7837837837837838</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -900,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7631578947368421</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6333333333333333</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.7924528301886793</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5932203389830508</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5608465608465608</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C13">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5490196078431373</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5368217054263565</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C15">
-        <v>277</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>277</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7875</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.525</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4697986577181208</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7578125</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4181818181818182</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4133333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3454545454545455</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3095238095238095</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C22">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,38 +1650,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>313</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0.675</v>
+      </c>
+      <c r="L23">
         <v>27</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>27</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>63</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23">
-        <v>0.65</v>
-      </c>
-      <c r="L23">
-        <v>221</v>
-      </c>
-      <c r="M23">
-        <v>221</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,13 +1700,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2727272727272727</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1718,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6067796610169491</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,37 +1750,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1662198391420912</v>
+        <v>0.01579116983564293</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>311</v>
+        <v>3054</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1800,37 +1800,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1033333333333333</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>31</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>269</v>
+        <v>2112</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.5857740585774058</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L26">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="M26">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1842,39 +1842,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.01898188093183779</v>
-      </c>
-      <c r="C27">
-        <v>22</v>
-      </c>
-      <c r="D27">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>0.08</v>
-      </c>
-      <c r="F27">
-        <v>0.92</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1137</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.5857142857142857</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L27">
         <v>41</v>
@@ -1892,95 +1868,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L28">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.01064516129032258</v>
-      </c>
-      <c r="C28">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>0.17</v>
-      </c>
-      <c r="F28">
-        <v>0.83</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3067</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28">
-        <v>0.58</v>
-      </c>
-      <c r="L28">
-        <v>29</v>
-      </c>
-      <c r="M28">
-        <v>29</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>21</v>
-      </c>
-    </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.009826860084230228</v>
-      </c>
-      <c r="C29">
-        <v>21</v>
-      </c>
-      <c r="D29">
-        <v>27</v>
-      </c>
-      <c r="E29">
-        <v>0.22</v>
-      </c>
-      <c r="F29">
-        <v>0.78</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2116</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1992,47 +1920,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5730337078651685</v>
+        <v>0.5748299319727891</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5692307692307692</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2044,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5098039215686274</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2070,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.4888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2096,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.3835616438356164</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2122,21 +2050,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.2948717948717949</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2148,33 +2076,111 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.359375</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K36">
-        <v>0.01034158570980884</v>
-      </c>
-      <c r="L36">
-        <v>33</v>
-      </c>
-      <c r="M36">
-        <v>43</v>
-      </c>
-      <c r="N36">
-        <v>0.77</v>
-      </c>
-      <c r="O36">
-        <v>0.23</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3158</v>
+      <c r="K39">
+        <v>0.01223721368057734</v>
+      </c>
+      <c r="L39">
+        <v>39</v>
+      </c>
+      <c r="M39">
+        <v>53</v>
+      </c>
+      <c r="N39">
+        <v>0.74</v>
+      </c>
+      <c r="O39">
+        <v>0.26</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3148</v>
       </c>
     </row>
   </sheetData>
